--- a/medicine/Psychotrope/Bönnsch/Bönnsch.xlsx
+++ b/medicine/Psychotrope/Bönnsch/Bönnsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%B6nnsch</t>
+          <t>Bönnsch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bönnsch est une bière de fermentation haute brassée dans la brasserie Bönnsch à Bonn en Allemagne. C'est une variante non filtrée de la Kölsch, mais elle ne peut pas être vendue comme telle car la Kölsch est l'objet d'une Appellation d'origine contrôlée européenne.
 Elle n'est disponible que dans la brasserie Bönnsch en pression.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%B6nnsch</t>
+          <t>Bönnsch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site de la Brasserie Bönnsch (en allemand)
  Portail de la bière   Portail de la Rhénanie-du-Nord-Westphalie                    </t>
